--- a/PageObjectModelFramework/resources/testdata.xlsx
+++ b/PageObjectModelFramework/resources/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="FindNewCar" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t>browser</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>BasePage intialies the constaructur whose argumrent is webdriver driver. Also object of Key as well as carbase Page are also initialized</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -703,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -726,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>

--- a/PageObjectModelFramework/resources/testdata.xlsx
+++ b/PageObjectModelFramework/resources/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FrameworkCSharp\PageObjectModelFramework\PageObjectModelFramework\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FrameworkCSharpEnhanced\PageObjectModelFramework\PageObjectModelFramework\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>browser</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>BasePage intialies the constaructur whose argumrent is webdriver driver. Also object of Key as well as carbase Page are also initialized</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -620,7 +617,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -706,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -729,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
